--- a/SCPD/20190624-0817_MSnE260_IntroToOprtnsMgmt/Z_calculator.xlsx
+++ b/SCPD/20190624-0817_MSnE260_IntroToOprtnsMgmt/Z_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/desk/github/practice-fun/SCPD/20190624-0817_MSnE260_IntroToOprtnsMgmt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E8FB20-C6F3-E249-BFB8-C766701D8849}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6CD71-9441-5C4A-AB42-E327F22D2DB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="14640" windowHeight="16660" xr2:uid="{248A9B87-DF6A-4749-82A8-B8410F35AB97}"/>
+    <workbookView xWindow="-17220" yWindow="-4780" windowWidth="14640" windowHeight="16660" xr2:uid="{248A9B87-DF6A-4749-82A8-B8410F35AB97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,72 +550,90 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="e">
-        <f t="shared" si="0"/>
+      <c r="A14">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.5284534206754086</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>2.7457587456758206E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.77</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.73884684918521393</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.13371330871005013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.93603000000000003</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.5222757565704064</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>2.7850390493531496E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.98</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B20" si="2">_xlfn.NORM.INV(A17, 0, 1)</f>
+        <v>2.0537489106318221</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C20" si="3">NORMDIST(B17,0,1,FALSE)-B17*NORMSDIST(-B17)</f>
+        <v>7.3431576681055669E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.91074999999999995</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>1.3453879022049617</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>4.1307455748987434E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.90883000000000003</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>1.3335846998074592</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>4.2372192779717946E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="C14" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C15" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C16" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C17" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C18" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C19" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
       <c r="C20" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
